--- a/log.xlsx
+++ b/log.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://my.wal-mart.com/personal/vvj0003_mx_wal-mart_com/Documents/projects/education/engineering/laboratorio-de-maquinas-termicas/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arana/Dropbox/personal-projects/education/engineering/laboratorio-de-maquinas-termicas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B60EE20-DF47-C44F-9FDB-521D855FEBDC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2614761-6D77-BA48-9AD1-8F710DE9DE54}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25600" yWindow="440" windowWidth="25600" windowHeight="28360" xr2:uid="{380B1456-870C-384E-86DE-B9397A48AD32}"/>
+    <workbookView xWindow="25600" yWindow="460" windowWidth="25600" windowHeight="28340" xr2:uid="{380B1456-870C-384E-86DE-B9397A48AD32}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
   <si>
     <t>Date</t>
   </si>
@@ -60,6 +60,12 @@
   </si>
   <si>
     <t>Carnot Cycle</t>
+  </si>
+  <si>
+    <t>Study Propiedades de las sustancias puras</t>
+  </si>
+  <si>
+    <t>Ejercicios</t>
   </si>
 </sst>
 </file>
@@ -413,15 +419,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62187808-B6E8-7042-B1DB-20B6AC0C334E}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -492,6 +498,57 @@
         <v>6</v>
       </c>
     </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>43933</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.3972222222222222</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.4201388888888889</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>43933</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.42430555555555555</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.44513888888888892</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>43933</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0.45277777777777778</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.47569444444444442</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
